--- a/sogno/utils/input.xlsx
+++ b/sogno/utils/input.xlsx
@@ -5,32 +5,41 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aytugy\Desktop\workspace\evrich\sogno\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aytugy\Desktop\workspace\evrich\external\event_manager\data_handling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5015E34-2425-466E-A34D-7AF86B10BC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C14571-EBCC-4A74-B3C7-63AD0B49A572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SocketInfoCluster" sheetId="13" r:id="rId1"/>
     <sheet name="SocketInfoOther" sheetId="19" r:id="rId2"/>
     <sheet name="Cluster1" sheetId="9" r:id="rId3"/>
-    <sheet name="Capacity1" sheetId="16" r:id="rId4"/>
-    <sheet name="Fleet" sheetId="18" r:id="rId5"/>
-    <sheet name="ServiceFleet" sheetId="14" r:id="rId6"/>
-    <sheet name="Price" sheetId="15" r:id="rId7"/>
+    <sheet name="Cluster2" sheetId="21" r:id="rId4"/>
+    <sheet name="Cluster3" sheetId="24" r:id="rId5"/>
+    <sheet name="Cluster4" sheetId="23" r:id="rId6"/>
+    <sheet name="Capacity1" sheetId="16" r:id="rId7"/>
+    <sheet name="Capacity2" sheetId="29" r:id="rId8"/>
+    <sheet name="Capacity3" sheetId="22" r:id="rId9"/>
+    <sheet name="Capacity4" sheetId="25" r:id="rId10"/>
+    <sheet name="Fleet" sheetId="18" r:id="rId11"/>
+    <sheet name="ServiceFleet" sheetId="14" r:id="rId12"/>
+    <sheet name="Price1" sheetId="15" r:id="rId13"/>
+    <sheet name="Price2" sheetId="20" r:id="rId14"/>
+    <sheet name="Price3" sheetId="27" r:id="rId15"/>
+    <sheet name="Price4" sheetId="28" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Fleet!$A$1:$J$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ServiceFleet!$A$1:$M$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Fleet!$A$1:$J$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">ServiceFleet!$A$1:$M$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
   <si>
     <t>cu_id</t>
   </si>
@@ -89,12 +98,6 @@
     <t>vehicle_model</t>
   </si>
   <si>
-    <t>ev001</t>
-  </si>
-  <si>
-    <t>ev002</t>
-  </si>
-  <si>
     <t>model1</t>
   </si>
   <si>
@@ -134,12 +137,6 @@
     <t>target_cluster</t>
   </si>
   <si>
-    <t>ev003</t>
-  </si>
-  <si>
-    <t>ev004</t>
-  </si>
-  <si>
     <t>service_name</t>
   </si>
   <si>
@@ -155,37 +152,49 @@
     <t>cu_1_a</t>
   </si>
   <si>
+    <t>cu_2_a</t>
+  </si>
+  <si>
+    <t>cu_2_b</t>
+  </si>
+  <si>
     <t>cu_1_b</t>
   </si>
   <si>
-    <t>ev005</t>
-  </si>
-  <si>
-    <t>cu_1_c</t>
-  </si>
-  <si>
-    <t>cu_1_d</t>
-  </si>
-  <si>
-    <t>cu_1_e</t>
-  </si>
-  <si>
-    <t>cu_1_f</t>
-  </si>
-  <si>
-    <t>cu_1_g</t>
-  </si>
-  <si>
-    <t>cu_1_h</t>
-  </si>
-  <si>
-    <t>ev006</t>
-  </si>
-  <si>
-    <t>ev007</t>
-  </si>
-  <si>
-    <t>ev008</t>
+    <t>mqtt_broker</t>
+  </si>
+  <si>
+    <t>service_api</t>
+  </si>
+  <si>
+    <t>cu_3_a</t>
+  </si>
+  <si>
+    <t>cu_3_b</t>
+  </si>
+  <si>
+    <t>cu_4_a</t>
+  </si>
+  <si>
+    <t>cu_4_b</t>
+  </si>
+  <si>
+    <t>ev1</t>
+  </si>
+  <si>
+    <t>ev2</t>
+  </si>
+  <si>
+    <t>ev3</t>
+  </si>
+  <si>
+    <t>ev4</t>
+  </si>
+  <si>
+    <t>ev5</t>
+  </si>
+  <si>
+    <t>ev6</t>
   </si>
 </sst>
 </file>
@@ -598,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B90A685-6DE2-42D0-8D24-8AE5CC965569}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,214 +637,51 @@
         <v>9001</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>9002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>9003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>9005</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53C5358-B238-4AD1-8EA4-FFC965ABACD0}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>9004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4">
-        <v>3306</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>55</v>
-      </c>
-      <c r="C6">
-        <v>55</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>55</v>
-      </c>
-      <c r="C7">
-        <v>55</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8">
-        <v>110</v>
-      </c>
-      <c r="C8">
-        <v>110</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9">
-        <v>110</v>
-      </c>
-      <c r="C9">
-        <v>110</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001E9F07-C842-4B56-A834-7D41FCD36F1E}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C006EF5-A83B-40A4-BA54-F8DBE9E4716C}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H25" sqref="H25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABE7B72-C3A4-4DE2-B0A1-44DCDC3EB696}">
   <dimension ref="A1:L10"/>
   <sheetViews>
@@ -958,31 +804,31 @@
         <v>18</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="J1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="L1" s="8"/>
     </row>
@@ -1089,12 +935,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6671D2DB-01EB-4F2E-8DEF-8AE3CE66AA40}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,16 +967,16 @@
         <v>18</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>12</v>
@@ -1148,39 +994,39 @@
         <v>16</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="6">
         <v>40</v>
       </c>
       <c r="D2" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="F2" s="9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G2" s="6">
         <v>1641625500</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J2" s="6">
         <v>200</v>
@@ -1197,31 +1043,31 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6">
         <v>40</v>
       </c>
       <c r="D3" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="F3" s="9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="6">
         <v>1641625800</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J3" s="6">
         <v>200</v>
@@ -1238,31 +1084,31 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6">
         <v>40</v>
       </c>
       <c r="D4" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E4" s="9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="F4" s="9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="6">
         <v>1641626100</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="6">
         <v>200</v>
@@ -1279,31 +1125,31 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6">
         <v>40</v>
       </c>
       <c r="D5" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E5" s="9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="F5" s="9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G5" s="6">
         <v>1641626400</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J5" s="6">
         <v>200</v>
@@ -1320,31 +1166,31 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6">
         <v>40</v>
       </c>
       <c r="D6" s="9">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E6" s="9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="F6" s="9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="6">
         <v>1641626700</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J6" s="6">
         <v>200</v>
@@ -1361,31 +1207,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6">
         <v>40</v>
       </c>
       <c r="D7" s="9">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E7" s="9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="F7" s="9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="6">
         <v>1641627000</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7" s="6">
         <v>200</v>
@@ -1401,86 +1247,34 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6">
-        <v>40</v>
-      </c>
-      <c r="D8" s="9">
-        <v>110</v>
-      </c>
-      <c r="E8" s="9">
-        <v>110</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1641627300</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="6">
-        <v>200</v>
-      </c>
-      <c r="K8" s="6">
-        <v>3600</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6">
-        <v>40</v>
-      </c>
-      <c r="D9" s="9">
-        <v>110</v>
-      </c>
-      <c r="E9" s="9">
-        <v>110</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1641627600</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="6">
-        <v>200</v>
-      </c>
-      <c r="K9" s="6">
-        <v>3600</v>
-      </c>
-      <c r="L9" s="9">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1509,7 +1303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068D87B7-66F2-4C20-9054-5A11E849B231}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1582,4 +1376,850 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5F09F8-4C57-4DFB-8386-D34D5A1AB8E6}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>44569.291666261583</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44569.333332870367</v>
+      </c>
+      <c r="B3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44569.374999479172</v>
+      </c>
+      <c r="B4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44569.416666087956</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44569.458332696762</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44569.5</v>
+      </c>
+      <c r="B7">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3E55B4-00D9-46C7-8466-B08CBC93C0CA}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>44569.291666261583</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44569.333332870367</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44569.374999479172</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44569.416666087956</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44569.458332696762</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44569.5</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2ED5849-99E9-43AA-96BA-AA2633F9BF1D}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>44569.291666261583</v>
+      </c>
+      <c r="B2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44569.333332870367</v>
+      </c>
+      <c r="B3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44569.374999479172</v>
+      </c>
+      <c r="B4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44569.416666087956</v>
+      </c>
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44569.458332696762</v>
+      </c>
+      <c r="B6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44569.5</v>
+      </c>
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53C5358-B238-4AD1-8EA4-FFC965ABACD0}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>9004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1883</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D3BF34-84B8-4D44-889A-A8696DA43AB5}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C004BF-E333-4890-9191-26832A9C7688}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F987F0-06E5-4D02-97EA-4368AFD84C8E}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001E9F07-C842-4B56-A834-7D41FCD36F1E}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>44569.291666261583</v>
+      </c>
+      <c r="B2">
+        <v>-22</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44569.333332870367</v>
+      </c>
+      <c r="B3">
+        <v>-22</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44569.374999479172</v>
+      </c>
+      <c r="B4">
+        <v>-22</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44569.416666087956</v>
+      </c>
+      <c r="B5">
+        <v>-22</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44569.458332696762</v>
+      </c>
+      <c r="B6">
+        <v>-22</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44569.5</v>
+      </c>
+      <c r="B7">
+        <v>-22</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB747F7-211A-4679-A751-C1E506633E46}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>44569.291666261583</v>
+      </c>
+      <c r="B2">
+        <v>-22</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44569.333332870367</v>
+      </c>
+      <c r="B3">
+        <v>-22</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44569.374999479172</v>
+      </c>
+      <c r="B4">
+        <v>-22</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44569.416666087956</v>
+      </c>
+      <c r="B5">
+        <v>-22</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44569.458332696762</v>
+      </c>
+      <c r="B6">
+        <v>-22</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44569.5</v>
+      </c>
+      <c r="B7">
+        <v>-22</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27612A97-4DD0-45FE-A21E-15FFC67ED572}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>44569.291666261583</v>
+      </c>
+      <c r="B2">
+        <v>-22</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44569.333332870367</v>
+      </c>
+      <c r="B3">
+        <v>-22</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44569.374999479172</v>
+      </c>
+      <c r="B4">
+        <v>-22</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44569.416666087956</v>
+      </c>
+      <c r="B5">
+        <v>-22</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44569.458332696762</v>
+      </c>
+      <c r="B6">
+        <v>-22</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44569.5</v>
+      </c>
+      <c r="B7">
+        <v>-22</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/sogno/utils/input.xlsx
+++ b/sogno/utils/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aytugy\Documents\workspace\evrich\external\event_manager\data_handling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eonakku\home\acs\fop\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E72019-3D61-40D3-92DD-98DDEDDA5ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5772C33-8D96-41EC-A60F-15BC702DEBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SocketInfoCluster" sheetId="13" r:id="rId1"/>
@@ -281,7 +281,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -297,9 +297,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -337,9 +337,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,9 +372,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,9 +424,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -589,7 +623,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -638,7 +672,7 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -713,7 +747,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -799,7 +833,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -857,10 +891,10 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -921,7 +955,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1014,11 +1048,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB747F7-211A-4679-A751-C1E506633E46}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1040,10 +1074,10 @@
         <v>44569.291666261583</v>
       </c>
       <c r="B2">
-        <v>-22</v>
+        <v>-44</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1051,10 +1085,10 @@
         <v>44569.333332870367</v>
       </c>
       <c r="B3">
-        <v>-22</v>
+        <v>-44</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1062,10 +1096,10 @@
         <v>44569.374999479172</v>
       </c>
       <c r="B4">
-        <v>-22</v>
+        <v>-44</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1073,10 +1107,10 @@
         <v>44569.416666087956</v>
       </c>
       <c r="B5">
-        <v>-22</v>
+        <v>-44</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1084,10 +1118,10 @@
         <v>44569.458332696762</v>
       </c>
       <c r="B6">
-        <v>-22</v>
+        <v>-44</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1095,10 +1129,10 @@
         <v>44569.5</v>
       </c>
       <c r="B7">
-        <v>-22</v>
+        <v>-44</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1115,7 +1149,7 @@
       <selection activeCell="F30" sqref="F29:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -1273,11 +1307,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6671D2DB-01EB-4F2E-8DEF-8AE3CE66AA40}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -1593,7 +1627,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
